--- a/documentos/SPRINTS/SPRINT1/archivos/DIAGRAMA BURNDOWN SGAL.xlsx
+++ b/documentos/SPRINTS/SPRINT1/archivos/DIAGRAMA BURNDOWN SGAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egobr\Dropbox\21-Direccion_Gestion_Proyectos\1_Gestion_Alumnos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F765F36-B888-4714-BB12-10F465703FD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F03DB-5CC0-4063-B2D4-340395F857D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="262" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,235 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -593,13 +821,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2153,8 +2381,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2309,12 +2537,14 @@
       <c r="J31" s="6">
         <v>1</v>
       </c>
-      <c r="K31" s="6"/>
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6">
         <f t="shared" ref="N31:N33" si="0">SUM(D31:M31)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31" s="5"/>
       <c r="Q31" s="5"/>
@@ -2371,12 +2601,14 @@
       <c r="J33" s="6">
         <v>2</v>
       </c>
-      <c r="K33" s="6"/>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O33" s="5"/>
       <c r="Q33" s="5"/>
@@ -2438,19 +2670,19 @@
       </c>
       <c r="K35" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L35" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M35" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N35" s="19">
         <f xml:space="preserve"> SUM(N29:N33)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O35" s="5"/>
       <c r="Q35" s="5"/>
@@ -2541,7 +2773,7 @@
       </c>
       <c r="K37" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>OK</v>
       </c>
       <c r="L37" s="15" t="str">
         <f t="shared" si="3"/>
@@ -2555,7 +2787,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D37:N37">
-    <cfRule type="iconSet" priority="23">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Flags">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2564,61 +2796,108 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="26" operator="greaterThanOrEqual">
       <formula>$N$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="22" operator="lessThanOrEqual">
       <formula>$J$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="lessThanOrEqual">
       <formula>$E$36</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="lessThanOrEqual">
       <formula>$E$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="lessThanOrEqual">
       <formula>$D$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="lessThanOrEqual">
       <formula>$F$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="lessThanOrEqual">
       <formula>$G$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="lessThanOrEqual">
       <formula>$H$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="lessThanOrEqual">
       <formula>$I$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="lessThanOrEqual">
       <formula>$K$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="lessThanOrEqual">
       <formula>$L$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThanOrEqual">
       <formula>$M$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+      <formula>$C$29</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+      <formula>$C$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+      <formula>$C$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+      <formula>$C$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>"$C$32"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>$C$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>$C$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Flags">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="num" val="&quot;si+$J$35&lt;$J$36&quot;"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentos/SPRINTS/SPRINT1/archivos/DIAGRAMA BURNDOWN SGAL.xlsx
+++ b/documentos/SPRINTS/SPRINT1/archivos/DIAGRAMA BURNDOWN SGAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egobr\Dropbox\21-Direccion_Gestion_Proyectos\1_Gestion_Alumnos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egobr\Dropbox\21-Direccion_Gestion_Proyectos\1_Gestion_Alumnos\nuevo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F03DB-5CC0-4063-B2D4-340395F857D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A6B71D-BA29-4FA3-8663-544D46662D80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="262" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +122,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
@@ -138,20 +132,6 @@
       <b/>
       <sz val="8"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -170,6 +150,33 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -248,7 +255,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -257,57 +264,47 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -371,9 +368,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -455,155 +455,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -652,9 +503,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -662,7 +511,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-ES"/>
+              <a:rPr lang="es-ES">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>SPRINT 1</a:t>
             </a:r>
           </a:p>
@@ -683,9 +536,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -707,7 +558,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$B$35</c:f>
+              <c:f>'Burndown Chart'!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -751,9 +602,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="FFFF00"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -792,7 +641,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$C$35:$M$35</c:f>
+              <c:f>'Burndown Chart'!$C$34:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -809,10 +658,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>11</c:v>
@@ -821,13 +670,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +693,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$B$36</c:f>
+              <c:f>'Burndown Chart'!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -888,9 +737,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="FFFF00"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -929,7 +776,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$C$36:$M$36</c:f>
+              <c:f>'Burndown Chart'!$C$35:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1091,9 +938,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1151,9 +996,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="FFFF00"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1161,7 +1004,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES"/>
+                  <a:rPr lang="es-ES">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFF00"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>PUNTOS DE HISTORIA</a:t>
                 </a:r>
               </a:p>
@@ -1182,9 +1029,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="FFFF00"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1213,9 +1058,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1231,14 +1074,26 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln cmpd="dbl">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3169876391917571"/>
+          <c:y val="9.4608247111560961E-2"/>
+          <c:w val="0.35329551578391005"/>
+          <c:h val="4.9751490938298719E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1248,16 +1103,22 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="tx1"/>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1908,16 +1769,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1033</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>40641</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>145813</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>11722</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>286871</xdr:rowOff>
+      <xdr:colOff>4102</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1946,13 +1807,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5852</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>51030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>54106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2043,7 +1904,7 @@
           <a:r>
             <a:rPr lang="es-ES" sz="1600" b="1">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -2379,10 +2240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2399,105 +2260,134 @@
     <col min="246" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" ht="8.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:17" ht="1.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" ht="2.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:17" ht="2.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
+      <c r="B27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="B28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="6">
         <v>6</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>3</v>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="6">
+        <v>2</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6">
+        <f>SUM(D28:M28)</f>
+        <v>6</v>
       </c>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="14" t="s">
-        <v>17</v>
+      <c r="B29" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C29" s="6">
-        <v>6</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6">
         <v>1</v>
       </c>
-      <c r="J29" s="6"/>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6">
         <f>SUM(D29:M29)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="14" t="s">
-        <v>18</v>
+      <c r="B30" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="C30" s="6">
         <v>4</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -2507,286 +2397,252 @@
       <c r="J30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="6"/>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6">
-        <f>SUM(D30:M30)</f>
-        <v>2</v>
+        <f t="shared" ref="N30:N32" si="0">SUM(D30:M30)</f>
+        <v>4</v>
       </c>
       <c r="O30" s="5"/>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="14" t="s">
-        <v>14</v>
+      <c r="B31" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="C31" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6">
         <v>1</v>
       </c>
-      <c r="J31" s="6">
-        <v>1</v>
-      </c>
+      <c r="J31" s="6"/>
       <c r="K31" s="6">
         <v>1</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6">
-        <f t="shared" ref="N31:N33" si="0">SUM(D31:M31)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="O31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="14" t="s">
-        <v>15</v>
+      <c r="B32" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6">
         <v>2</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
+        <v>2</v>
+      </c>
+      <c r="K32" s="6">
         <v>1</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="6">
-        <v>10</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6">
-        <v>2</v>
-      </c>
-      <c r="J33" s="6">
-        <v>2</v>
-      </c>
-      <c r="K33" s="6">
-        <v>1</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="5"/>
+      <c r="B34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12">
+        <f>SUM(C28:C32)</f>
+        <v>26</v>
+      </c>
+      <c r="D34" s="14">
+        <f xml:space="preserve"> C34-SUM(D28:D32)</f>
+        <v>25</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" ref="E34:M34" si="1" xml:space="preserve"> D34-SUM(E28:E32)</f>
+        <v>22</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L34" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M34" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N34" s="15">
+        <f xml:space="preserve"> SUM(N28:N32)</f>
+        <v>22</v>
+      </c>
       <c r="O34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="16">
-        <f>SUM(C29:C33)</f>
+      <c r="B35" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="13">
+        <f>SUM(C28:C32)</f>
         <v>26</v>
       </c>
-      <c r="D35" s="18">
-        <f xml:space="preserve"> C35-SUM(D29:D33)</f>
-        <v>25</v>
-      </c>
-      <c r="E35" s="18">
-        <f t="shared" ref="E35:M35" si="1" xml:space="preserve"> D35-SUM(E29:E33)</f>
-        <v>22</v>
-      </c>
-      <c r="F35" s="18">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="G35" s="18">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H35" s="18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="I35" s="18">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J35" s="18">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K35" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L35" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M35" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N35" s="19">
-        <f xml:space="preserve"> SUM(N29:N33)</f>
-        <v>21</v>
-      </c>
-      <c r="O35" s="5"/>
+      <c r="D35" s="13">
+        <f t="shared" ref="D35:M35" si="2">C35-($C$35/10)</f>
+        <v>23.4</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="2"/>
+        <v>20.799999999999997</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="2"/>
+        <v>18.199999999999996</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="2"/>
+        <v>15.599999999999996</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="2"/>
+        <v>12.999999999999996</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="2"/>
+        <v>10.399999999999997</v>
+      </c>
+      <c r="J35" s="13">
+        <f t="shared" si="2"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="2"/>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="L35" s="13">
+        <f t="shared" si="2"/>
+        <v>2.5999999999999974</v>
+      </c>
+      <c r="M35" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
+        <f>C35</f>
+        <v>26</v>
+      </c>
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="17">
-        <f>SUM(C29:C33)</f>
-        <v>26</v>
-      </c>
-      <c r="D36" s="17">
-        <f t="shared" ref="D36:M36" si="2">C36-($C$36/10)</f>
-        <v>23.4</v>
-      </c>
-      <c r="E36" s="17">
-        <f t="shared" si="2"/>
-        <v>20.799999999999997</v>
-      </c>
-      <c r="F36" s="17">
-        <f t="shared" si="2"/>
-        <v>18.199999999999996</v>
-      </c>
-      <c r="G36" s="17">
-        <f t="shared" si="2"/>
-        <v>15.599999999999996</v>
-      </c>
-      <c r="H36" s="17">
-        <f t="shared" si="2"/>
-        <v>12.999999999999996</v>
-      </c>
-      <c r="I36" s="17">
-        <f t="shared" si="2"/>
-        <v>10.399999999999997</v>
-      </c>
-      <c r="J36" s="17">
-        <f t="shared" si="2"/>
-        <v>7.7999999999999972</v>
-      </c>
-      <c r="K36" s="17">
-        <f t="shared" si="2"/>
-        <v>5.1999999999999975</v>
-      </c>
-      <c r="L36" s="17">
-        <f t="shared" si="2"/>
-        <v>2.5999999999999974</v>
-      </c>
-      <c r="M36" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="20">
-        <f>C36</f>
-        <v>26</v>
-      </c>
-      <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="15" t="str">
-        <f>IF(D35&lt;=D36,"OK","")</f>
+      <c r="C36" s="3"/>
+      <c r="D36" s="11" t="str">
+        <f>IF(D34&lt;=D35,"OK","")</f>
         <v/>
       </c>
-      <c r="E37" s="15" t="str">
-        <f t="shared" ref="E37:M37" si="3">IF(E35&lt;=E36,"OK","")</f>
+      <c r="E36" s="11" t="str">
+        <f t="shared" ref="E36:M36" si="3">IF(E34&lt;=E35,"OK","")</f>
         <v/>
       </c>
-      <c r="F37" s="15" t="str">
+      <c r="F36" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G37" s="15" t="str">
+      <c r="G36" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H37" s="15" t="str">
+      <c r="H36" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I37" s="15" t="str">
+      <c r="I36" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J37" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-      <c r="K37" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-      <c r="L37" s="15" t="str">
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M37" s="15" t="str">
+      <c r="M36" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D37:N37">
+  <conditionalFormatting sqref="D36:N36">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Flags">
         <cfvo type="percent" val="0"/>
@@ -2795,96 +2651,103 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35">
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="greaterThanOrEqual">
-      <formula>$N$36</formula>
+  <conditionalFormatting sqref="N34">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="greaterThanOrEqual">
+      <formula>$N$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="36" priority="22" operator="lessThanOrEqual">
-      <formula>$J$36</formula>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="lessThanOrEqual">
+      <formula>$J$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="35" priority="20" operator="lessThanOrEqual">
-      <formula>$E$36</formula>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThanOrEqual">
+      <formula>$E$35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="lessThanOrEqual">
-      <formula>$E$36</formula>
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="lessThanOrEqual">
+      <formula>$E$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="lessThanOrEqual">
-      <formula>$D$36</formula>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThanOrEqual">
+      <formula>$D$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="lessThanOrEqual">
-      <formula>$F$36</formula>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThanOrEqual">
+      <formula>$F$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="lessThanOrEqual">
-      <formula>$G$36</formula>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="lessThanOrEqual">
+      <formula>$G$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="lessThanOrEqual">
-      <formula>$H$36</formula>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThanOrEqual">
+      <formula>$H$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="lessThanOrEqual">
-      <formula>$I$36</formula>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThanOrEqual">
+      <formula>$I$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="lessThanOrEqual">
-      <formula>$K$36</formula>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThanOrEqual">
+      <formula>$K$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="lessThanOrEqual">
-      <formula>$L$36</formula>
+  <conditionalFormatting sqref="L34">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThanOrEqual">
+      <formula>$L$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThanOrEqual">
-      <formula>$M$36</formula>
+  <conditionalFormatting sqref="M34">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThanOrEqual">
+      <formula>$M$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$C$28</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>$C$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
-      <formula>$C$29</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>$C$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>$C$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$C$31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"$C$32"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
-      <formula>"$C$32"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>$C$32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
-      <formula>$C$33</formula>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="num" val="&quot;si+$J$35&lt;$J$36&quot;"/>
+      </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Flags">
         <cfvo type="percent" val="0"/>
@@ -2892,18 +2755,11 @@
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="1">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="num" val="&quot;si+$J$35&lt;$J$36&quot;"/>
-      </iconSet>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N29:N33" formulaRange="1"/>
+    <ignoredError sqref="N28:N32" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/documentos/SPRINTS/SPRINT1/archivos/DIAGRAMA BURNDOWN SGAL.xlsx
+++ b/documentos/SPRINTS/SPRINT1/archivos/DIAGRAMA BURNDOWN SGAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egobr\Dropbox\21-Direccion_Gestion_Proyectos\1_Gestion_Alumnos\nuevo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A6B71D-BA29-4FA3-8663-544D46662D80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A9C054-A370-4758-A79B-9BD7F29678AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="262" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,812 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="115">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -670,13 +1475,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,8 +3047,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2367,12 +3172,14 @@
       <c r="J29" s="6">
         <v>1</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6">
         <f>SUM(D29:M29)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O29" s="5"/>
     </row>
@@ -2532,19 +3339,19 @@
       </c>
       <c r="K34" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L34" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" s="15">
         <f xml:space="preserve"> SUM(N28:N32)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O34" s="5"/>
       <c r="Q34" s="5"/>
@@ -2643,7 +3450,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D36:N36">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="33">
       <iconSet iconSet="3Flags">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2652,103 +3459,100 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="greaterThanOrEqual">
       <formula>$N$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="lessThanOrEqual">
       <formula>$J$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="lessThanOrEqual">
       <formula>$E$35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="21" operator="lessThanOrEqual">
       <formula>$E$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="lessThanOrEqual">
       <formula>$D$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="lessThanOrEqual">
       <formula>$F$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThanOrEqual">
       <formula>$G$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="lessThanOrEqual">
       <formula>$H$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="lessThanOrEqual">
       <formula>$I$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="lessThanOrEqual">
       <formula>$K$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThanOrEqual">
       <formula>$L$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="lessThanOrEqual">
       <formula>$M$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>$C$28</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>$C$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>$C$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>$C$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>$C$31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"$C$32"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>$C$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="2">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="num" val="&quot;si+$J$35&lt;$J$36&quot;"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="2">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Flags">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/documentos/SPRINTS/SPRINT1/archivos/DIAGRAMA BURNDOWN SGAL.xlsx
+++ b/documentos/SPRINTS/SPRINT1/archivos/DIAGRAMA BURNDOWN SGAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egobr\Dropbox\21-Direccion_Gestion_Proyectos\1_Gestion_Alumnos\nuevo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A9C054-A370-4758-A79B-9BD7F29678AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FCE22A-6285-4951-B741-38C5284B316B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="262" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,6 @@
     <t>PH DIA 10</t>
   </si>
   <si>
-    <t>PH DIA 
-1</t>
-  </si>
-  <si>
     <t>Preparación de una interfaz gráfica.</t>
   </si>
   <si>
@@ -91,12 +87,15 @@
     <t>PH 
 INICIO</t>
   </si>
+  <si>
+    <t>PH DIA 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,34 +121,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -175,7 +148,27 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -246,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -255,56 +248,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -455,817 +445,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1316,7 +495,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-ES">
+              <a:rPr lang="es-ES" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
@@ -1354,7 +533,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2443733097556742E-2"/>
+          <c:y val="0.14284821313100832"/>
+          <c:w val="0.92192905761551835"/>
+          <c:h val="0.75926364999305462"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1454,34 +643,34 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.5</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,11 +827,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="679755696"/>
-        <c:axId val="679756680"/>
+        <c:axId val="-876835024"/>
+        <c:axId val="-876825232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="679755696"/>
+        <c:axId val="-876835024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,11 +869,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="FFFF00"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1692,7 +879,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES"/>
+                  <a:rPr lang="es-ES" sz="1050">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFF00"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>DIAS</a:t>
                 </a:r>
               </a:p>
@@ -1711,11 +902,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="FFFF00"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1741,7 +930,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
@@ -1753,7 +942,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679756680"/>
+        <c:crossAx val="-876825232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1761,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679756680"/>
+        <c:axId val="-876825232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +988,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="FFFF00"/>
                     </a:solidFill>
@@ -1809,7 +998,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES">
+                  <a:rPr lang="es-ES" sz="1200">
                     <a:solidFill>
                       <a:srgbClr val="FFFF00"/>
                     </a:solidFill>
@@ -1832,7 +1021,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="FFFF00"/>
                   </a:solidFill>
@@ -1861,7 +1050,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
@@ -1873,7 +1062,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679755696"/>
+        <c:crossAx val="-876835024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1912,7 +1101,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -3047,20 +2236,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" customWidth="1"/>
-    <col min="4" max="7" width="7.77734375" style="2" customWidth="1"/>
-    <col min="8" max="13" width="7.77734375" style="3" customWidth="1"/>
+    <col min="4" max="7" width="7.6640625" style="2" customWidth="1"/>
+    <col min="8" max="13" width="7.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="31.21875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="31.33203125" style="3" customWidth="1"/>
     <col min="17" max="245" width="9.109375" style="3" customWidth="1"/>
     <col min="246" max="16384" width="11.5546875" style="3"/>
   </cols>
@@ -3076,14 +2265,14 @@
     </row>
     <row r="27" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>13</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>4</v>
@@ -3112,299 +2301,303 @@
       <c r="M27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="N27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="18">
         <v>6</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18">
         <v>1</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="18">
         <v>1</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="18">
         <v>1</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="18">
         <v>0.5</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="18">
         <v>0.5</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="18">
         <v>2</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6">
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18">
         <f>SUM(D28:M28)</f>
         <v>6</v>
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="18">
         <v>4</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18">
         <v>1</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="18">
         <v>1</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="18">
         <v>1</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6">
+      <c r="L29" s="18">
+        <v>1</v>
+      </c>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18">
         <f>SUM(D29:M29)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="18">
         <v>4</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18">
         <v>1</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6">
+      <c r="I30" s="18"/>
+      <c r="J30" s="18">
         <v>1</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="18">
         <v>1</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="18"/>
+      <c r="M30" s="18">
         <v>1</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6">
+      <c r="N30" s="18">
         <f t="shared" ref="N30:N32" si="0">SUM(D30:M30)</f>
         <v>4</v>
       </c>
       <c r="O30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="18">
         <v>2</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18">
         <v>1</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6">
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18">
         <v>1</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6">
+      <c r="M31" s="18"/>
+      <c r="N31" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="18">
         <v>10</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18">
         <v>1</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6">
+      <c r="G32" s="18">
         <v>1</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="18">
         <v>1</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="18">
         <v>2</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="18">
         <v>2</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="18">
+        <v>2</v>
+      </c>
+      <c r="L32" s="18">
         <v>1</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6">
+      <c r="M32" s="18"/>
+      <c r="N32" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="14">
         <f>SUM(C28:C32)</f>
         <v>26</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="15">
         <f xml:space="preserve"> C34-SUM(D28:D32)</f>
+        <v>26</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" ref="E34:M34" si="1" xml:space="preserve"> D34-SUM(E28:E32)</f>
         <v>25</v>
       </c>
-      <c r="E34" s="14">
-        <f t="shared" ref="E34:M34" si="1" xml:space="preserve"> D34-SUM(E28:E32)</f>
-        <v>22</v>
-      </c>
-      <c r="F34" s="14">
+      <c r="F34" s="15">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G34" s="15">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G34" s="14">
+      <c r="H34" s="15">
         <f t="shared" si="1"/>
-        <v>19.5</v>
-      </c>
-      <c r="H34" s="14">
+        <v>18.5</v>
+      </c>
+      <c r="I34" s="15">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="I34" s="14">
+        <v>14</v>
+      </c>
+      <c r="J34" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J34" s="14">
+        <v>8</v>
+      </c>
+      <c r="K34" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K34" s="14">
+        <v>4</v>
+      </c>
+      <c r="L34" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L34" s="14">
+        <v>1</v>
+      </c>
+      <c r="M34" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M34" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
         <f xml:space="preserve"> SUM(N28:N32)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="17">
         <f>SUM(C28:C32)</f>
         <v>26</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="17">
         <f t="shared" ref="D35:M35" si="2">C35-($C$35/10)</f>
         <v>23.4</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="17">
         <f t="shared" si="2"/>
         <v>20.799999999999997</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="17">
         <f t="shared" si="2"/>
         <v>18.199999999999996</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="17">
         <f t="shared" si="2"/>
         <v>15.599999999999996</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="17">
         <f t="shared" si="2"/>
         <v>12.999999999999996</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="17">
         <f t="shared" si="2"/>
         <v>10.399999999999997</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="17">
         <f t="shared" si="2"/>
         <v>7.7999999999999972</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="17">
         <f t="shared" si="2"/>
         <v>5.1999999999999975</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="17">
         <f t="shared" si="2"/>
         <v>2.5999999999999974</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="17">
         <f>C35</f>
         <v>26</v>
       </c>
@@ -3412,40 +2605,16 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
-      <c r="D36" s="11" t="str">
-        <f>IF(D34&lt;=D35,"OK","")</f>
-        <v/>
-      </c>
-      <c r="E36" s="11" t="str">
-        <f t="shared" ref="E36:M36" si="3">IF(E34&lt;=E35,"OK","")</f>
-        <v/>
-      </c>
-      <c r="F36" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G36" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H36" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I36" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M36" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3459,88 +2628,88 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="greaterThanOrEqual">
       <formula>$N$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="lessThanOrEqual">
       <formula>$J$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="lessThanOrEqual">
       <formula>$E$35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="lessThanOrEqual">
       <formula>$E$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThanOrEqual">
       <formula>$D$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="lessThanOrEqual">
       <formula>$F$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="lessThanOrEqual">
       <formula>$G$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="lessThanOrEqual">
       <formula>$H$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThanOrEqual">
       <formula>$I$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="lessThanOrEqual">
       <formula>$K$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="lessThanOrEqual">
       <formula>$L$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThanOrEqual">
       <formula>$M$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>$C$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>$C$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>$C$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$C$31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"$C$32"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>$C$32</formula>
     </cfRule>
   </conditionalFormatting>
